--- a/AF-P07-G3/Anexos/Anexo 1 - Integridad de los datos y testigos.xlsx
+++ b/AF-P07-G3/Anexos/Anexo 1 - Integridad de los datos y testigos.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3kxhoDark\Desktop\CIBER\AFI\Unidad 4\Proyecto 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02E0167-8F14-4174-B41F-0DDEFEE51CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="62">
   <si>
     <t>Verificación</t>
   </si>
@@ -51,44 +45,173 @@
     <t>Firma y DNI</t>
   </si>
   <si>
-    <t>Fdo: Christian con DNI 77234523B – Fecha: Viernes 05 de Abril de 2024</t>
-  </si>
-  <si>
     <t>Proceso atestiguado por Testigos</t>
   </si>
   <si>
     <t>Juan Manuel Cumbrera López</t>
   </si>
   <si>
-    <t>Fdo: Juan Manuel con DNI 77379234Z – Fecha: Viernes 05 de Abril de 2024</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>EDCDBCAC27263A45D6DFE27F6C8BAFF55952B2357A70031DE20DE057730CD359</t>
-  </si>
-  <si>
-    <t>Integridad de los datos y testigos: DESKTOP-01S7HH9-20220408-171552.dmp</t>
-  </si>
-  <si>
-    <t>Integridad de los datos y testigos: DESKTOP-01S7HH9-20220408-171552.dmp.zip</t>
-  </si>
-  <si>
-    <t>Integridad de los datos y testigos: DESKTOP-01S7HH9-20220408-171552.json</t>
-  </si>
-  <si>
-    <t>2246B2ABB178B3A508B5C8207D50E7E6F86D5C1F09487B50DAAA6387BEF639F0</t>
-  </si>
-  <si>
-    <t>CBCD0AC591B4FC425550EB1292AD8F1DDDC4B0146A6D0DF7B23F6D13FA84B049</t>
+    <t>Integridad de los datos y testigos: adb-backup-Atalus-Grasstem.ab</t>
+  </si>
+  <si>
+    <t>E64E952C3F43C235BAF5D83F8CEA1A86D7640821BAEFCBE89C480B0FFF7688CF</t>
+  </si>
+  <si>
+    <t>Fdo: Christian con DNI 77234523B – Fecha: Domingo 21 de Abril de 2024</t>
+  </si>
+  <si>
+    <t>Fdo: Juan Manuel con DNI 77379234Z – Fecha: Domingo 21 de Abril de 2024</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: adb-backup-Camillo-Richbald.ab</t>
+  </si>
+  <si>
+    <t>9C9C983DE848C7B600A8F97A191B2FC7F9C77F5826DE42FEF93B410094BFAC43</t>
+  </si>
+  <si>
+    <t>Fdo: Christian con DNI 77234523B – Fecha:  Domingo 21 de Abril de 2024</t>
+  </si>
+  <si>
+    <t>Fdo: Juan Manuel con DNI 77379234Z – Fecha:  Domingo 21 de Abril de 2024</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos:  adb-backup-Lasssandra-Cordalis.ab</t>
+  </si>
+  <si>
+    <t>40E6F12CF248468C2849AA2C8094D186B0264BB758D4839EE190486721DA013A</t>
+  </si>
+  <si>
+    <t>A61ABD7BE758D6F494E84FCB743E78E65D3B30F95FFAB7E65839FCEAF3F7B21D</t>
+  </si>
+  <si>
+    <t>33A147E409A2400A762845932C9CDE7CE280FC944F4A6E6E50D8E0AECE2F2EF0</t>
+  </si>
+  <si>
+    <t>E808A0BD5B9B55EB1BA536AA704C0E80164375E0FA96623F997CE5696A370A8A</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos:  Google-Data-Atalus-Grasstem.zip</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos:  Google-Data-Camillo-Richbals.zip</t>
+  </si>
+  <si>
+    <t>47854017FC1F147D8426184519B1B21357F7876A9513AB40D093BAF215EE6B3C</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos:  Google-Data-Lassandra-Cordalis.zip</t>
+  </si>
+  <si>
+    <t>0A1989AEAE247AABA70621795127D0B8DE6BE5D84E1A592269D457432C3C4FFA</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: imagen-sd.ad1</t>
+  </si>
+  <si>
+    <t>1BEEC3DF0227EB8D26FC5810411A350FB62761B469FC380074D8978A7A048469</t>
+  </si>
+  <si>
+    <t>07D015C094F37433E5F33634154544FC8D020C98CEC038D32CAB09E9D7E048F2</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: Instagram-lassandracordalis-20230504.zip</t>
+  </si>
+  <si>
+    <t>0E02FCE437A698421C947B87C642704109D3D839D1A64AC1B365DE1662CD3056</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: Telegram-Data-Lassandra-Cordalis.zip</t>
+  </si>
+  <si>
+    <t>A50E56D3E6789B346CCE39A90F392B88327000B3524C9CDE231C7819A9C8DA1F</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: WhatsApp-Database-Atalus-Grasstem.zip</t>
+  </si>
+  <si>
+    <t>C701AE767B8800AB15B201522611C23C23A5655D6D98B348E3B045076F5B8CEF</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: WhatsApp-Database-Camillo-Richbald.zip</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: WhatsApp-Database-Lassandra-Cordalis.zip</t>
+  </si>
+  <si>
+    <t>83B83A02E748E322933BBE29D98BDF8C21AF8FD5457185A9D5EE903F9079E3C5</t>
+  </si>
+  <si>
+    <t>8BEC25345D4FA6C8FE44657A6FA28602F2EA644EDE3409386C3AE2F182747D23</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: takeout-20230505T011442Z-001.zip</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: takeout-20230505T011442Z-002.zip</t>
+  </si>
+  <si>
+    <t>31F863F4805FC09566BE7558B2D357E350B40807A110D9E3855F1B025E4FE18B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>AE6211A3ED23FEECBE8A4F79D0D0CA9452A7B8A77E7C3361C4774C709FB7D327</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: takeout-20230505T011311Z-001.zip</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: takeout-20230505T011311Z-002.zip</t>
+  </si>
+  <si>
+    <t>F9839E0F0E20955BDE5A1ACB04A6CE7B4D12F6970A8CD0A5E2C8ABA86711EF68</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: takeout-20230430T183453Z-001.zip</t>
+  </si>
+  <si>
+    <t>86C9D35855F529D4940558023BD605DAC7838FE01FBD2DA203CA8202FE0586B5</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos: takeout-20230430T183453Z-002.zip</t>
+  </si>
+  <si>
+    <t>38EE042524F1F984A18D41D279746E33050E6394FD01C2EB33159F4B9D717331</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos:  Disco-pc-infectado-ducky.img.zip</t>
+  </si>
+  <si>
+    <t>Integridad de los datos y testigos:  Disco-pc-infectado-ducky.img</t>
+  </si>
+  <si>
+    <t>SHA1 HASH</t>
+  </si>
+  <si>
+    <t>SHA1 HASH Verificado</t>
+  </si>
+  <si>
+    <t>1BFB7525B55F84CF9ABF776DE273533DF84D2204</t>
+  </si>
+  <si>
+    <t>MD5 HASH</t>
+  </si>
+  <si>
+    <t>MD5 HASH Verificado</t>
+  </si>
+  <si>
+    <t>39A7E7302BEB29233E579B5AC5DC8D4E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -290,6 +413,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -313,26 +473,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,28 +484,73 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Accent" xfId="3" xr:uid="{6694B3A4-18F4-489C-AAF1-FA9B58CA743B}"/>
-    <cellStyle name="Accent 1" xfId="4" xr:uid="{7B3E15DF-FA7D-421D-BDC1-FAE6940D116C}"/>
-    <cellStyle name="Accent 2" xfId="5" xr:uid="{50971288-3045-44E6-9352-BD7F35B45ABF}"/>
-    <cellStyle name="Accent 3" xfId="6" xr:uid="{E38A3E28-BF8D-41D7-98DF-95988F63C39A}"/>
-    <cellStyle name="Bad" xfId="7" xr:uid="{BFEE290C-C7FE-4C1C-82A9-E82F948B9DFB}"/>
-    <cellStyle name="Error" xfId="8" xr:uid="{568FD757-61A3-4F8A-A79A-461571C74211}"/>
-    <cellStyle name="Footnote" xfId="9" xr:uid="{D53676C0-44C9-4394-B07C-7E198201973F}"/>
-    <cellStyle name="Good" xfId="10" xr:uid="{7CE39507-52C5-4C32-B31B-42C67259E0B6}"/>
-    <cellStyle name="Heading" xfId="11" xr:uid="{084CCF31-8FCC-4B28-B7EA-DEE0DE487F75}"/>
-    <cellStyle name="Heading 1" xfId="12" xr:uid="{0A73F7B7-2A44-4809-8942-11D059537D54}"/>
-    <cellStyle name="Heading 2" xfId="13" xr:uid="{A4FC2E93-6E6F-4C0A-9D54-AD3D0CA8C444}"/>
-    <cellStyle name="Hyperlink" xfId="14" xr:uid="{7B898066-70B2-4399-8846-BC0B9EA839C9}"/>
-    <cellStyle name="Neutral 2" xfId="2" xr:uid="{7164A33B-85D7-4F61-9A18-1659BEAD1FC7}"/>
+    <cellStyle name="Accent" xfId="3"/>
+    <cellStyle name="Accent 1" xfId="4"/>
+    <cellStyle name="Accent 2" xfId="5"/>
+    <cellStyle name="Accent 3" xfId="6"/>
+    <cellStyle name="Bad" xfId="7"/>
+    <cellStyle name="Error" xfId="8"/>
+    <cellStyle name="Footnote" xfId="9"/>
+    <cellStyle name="Good" xfId="10"/>
+    <cellStyle name="Heading" xfId="11"/>
+    <cellStyle name="Heading 1" xfId="12"/>
+    <cellStyle name="Heading 2" xfId="13"/>
+    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Neutral 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{34EC1D34-2961-4089-907B-663154BAF7E4}"/>
-    <cellStyle name="Note" xfId="15" xr:uid="{99DBD972-7EAA-4451-AC9E-9DC8EF2D2BF0}"/>
-    <cellStyle name="Result" xfId="16" xr:uid="{B384B1D1-D79C-47CC-B47C-74240CB4C207}"/>
-    <cellStyle name="Status" xfId="17" xr:uid="{5F68B93E-6456-4EF1-A5B5-95281DF5D0F6}"/>
-    <cellStyle name="Text" xfId="18" xr:uid="{1CDAE28A-2777-45CF-969A-433B0C50B70B}"/>
-    <cellStyle name="Warning" xfId="19" xr:uid="{180589ED-8AC8-4F89-A6F6-A27C38B771DB}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="15"/>
+    <cellStyle name="Result" xfId="16"/>
+    <cellStyle name="Status" xfId="17"/>
+    <cellStyle name="Text" xfId="18"/>
+    <cellStyle name="Warning" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,84 +820,185 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75">
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="7" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="P2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" ht="30">
-      <c r="B5" s="8" t="s">
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="P5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" ht="15.75">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="P6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -719,104 +1007,276 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" ht="37.5" customHeight="1">
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="P7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75">
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="P9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75">
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="33" customHeight="1">
-      <c r="B11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="14" spans="2:6" ht="15.75">
-      <c r="B14" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="P11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="P14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="7" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="30">
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75">
-      <c r="B18" s="4" t="s">
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="I17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="P17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75">
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="P18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -825,104 +1285,276 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75">
-      <c r="B20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="I19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="P19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="I20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="P20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75">
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="I21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="P21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75">
-      <c r="B22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75">
-      <c r="B23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75">
-      <c r="B26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="7" t="s">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="I23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="P23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="P26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="7" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="I27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="7"/>
+      <c r="P27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="7"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" ht="30">
-      <c r="B29" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="P28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+    </row>
+    <row r="29" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75">
-      <c r="B30" s="4" t="s">
+      <c r="C29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="I29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="P29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75">
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="P30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -931,69 +1563,1438 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" ht="15.75">
-      <c r="B32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="I31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="P31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="I32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="P32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" ht="15.75">
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="I33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="P33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" ht="15.75">
-      <c r="B34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" ht="15.75">
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="I34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="P34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="I35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="P35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="I39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="I40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="2:20" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="I41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="I42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="I44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="I47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="I50" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="I51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="I52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="I53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="I54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="I55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="I56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="I59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="I62" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="I63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M63" s="7"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="I64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+    </row>
+    <row r="65" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="I65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="I66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="I67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="I68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="I69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="I70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="I71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="I74" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="I75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" s="7"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="I76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+    </row>
+    <row r="77" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="I77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="I78" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="I79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="I80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="I81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="I82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="I83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="I86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="I87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M87" s="7"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="I88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+    </row>
+    <row r="89" spans="2:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="I89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="I90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="I92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="I93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="I95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="7"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+    </row>
+    <row r="101" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+    </row>
+    <row r="103" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+    </row>
+    <row r="105" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="18"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="15"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B21:F21"/>
+  <mergeCells count="224">
+    <mergeCell ref="Q35:T35"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C103:F103"/>
+    <mergeCell ref="C104:F104"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="I81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="I90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="I93:M93"/>
+    <mergeCell ref="J94:M94"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="I69:M69"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="I74:M74"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="I66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="I57:M57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="I62:M62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="I54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="I38:M38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="I26:M26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="C107:F107"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
@@ -1009,6 +3010,24 @@
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
